--- a/medicine/Mort/Cimetière_parisien_de_Thiais/Cimetière_parisien_de_Thiais.xlsx
+++ b/medicine/Mort/Cimetière_parisien_de_Thiais/Cimetière_parisien_de_Thiais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Thiais</t>
+          <t>Cimetière_parisien_de_Thiais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière parisien de Thiais est un des cimetières parisiens extra-muros. Il est situé sur la commune de Thiais, dans le département du Val-de-Marne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Thiais</t>
+          <t>Cimetière_parisien_de_Thiais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant que cimetière parisien extra-muros, il est administré par la ville de Paris. Il est le deuxième de ce genre en superficie et en activité, derrière le cimetière parisien de Pantin. Il occupe 103 des 643 hectares de la commune de Thiais, soit 16 %[1]. Environ 115 000 sépultures, pour 150 000 concessions accordées, sont regroupées dans 130 divisions[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que cimetière parisien extra-muros, il est administré par la ville de Paris. Il est le deuxième de ce genre en superficie et en activité, derrière le cimetière parisien de Pantin. Il occupe 103 des 643 hectares de la commune de Thiais, soit 16 %. Environ 115 000 sépultures, pour 150 000 concessions accordées, sont regroupées dans 130 divisions,.
 Il est distinct du cimetière communal de Thiais, où sont inhumés les défunts de la commune de Thiais.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Thiais</t>
+          <t>Cimetière_parisien_de_Thiais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le cimetière parisien le plus excentré[4], situé à plus de 5 km de la capitale. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le cimetière parisien le plus excentré, situé à plus de 5 km de la capitale. 
 Son entrée principale, située 261 route de Fontainebleau à Thiais, fait face à la station Auguste Perret de la ligne 7 du tramway. Une entrée secondaire se trouve avenue du Général-de-Gaulle.
 Le cimetière est bordé par l'A86 à l'est et au sud.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_parisien_de_Thiais</t>
+          <t>Cimetière_parisien_de_Thiais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,19 +594,129 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ouverture
-Ouvert le 1er octobre 1929, il est le plus récent des cimetières parisiens. Son ouverture se fait contre l'avis des membres du conseil municipal de la commune, qui iront jusqu'à démissionner collectivement en mai 1923 en signe de protestation[4].
-La double porte d'entrée du cimetière, dans le style des années 1920, est une création de l'architecte Charles Halley[5], tandis que le mur d'enceinte est d'Auguste Perret[4].
-Soldats serbes de la Première Guerre mondiale
-700 soldats serbes de la Première Guerre mondiale y sont enterrés dans un carré militaire. Ils combattirent dans les Balkans et malades ou blessés, furent ramenés par la France à Marseille et envoyés dans des hôpitaux militaires. Ceux qui moururent furent inhumés au cimetière de Thiais plus tard, dans les années 1930, dans le contexte de l'amitié franco-serbe.
-En 2011, le président serbe, Boris Tadić, vient se recueillir devant leurs tombes[6].
-Jardins de la fraternité
-Ce cimetière abrite les seuls « terrains communs » de Paris pour adultes (divisions 48, 49, 50, 55, 56, 57, 58 et 95) dits « Jardins de la fraternité », où sont inhumées gratuitement les personnes non identifiées ou sans ressources[5],[7], ce qui a participé à son surnom de « cimetière des pauvres »[4]. C'est là que sont inhumées les 57 victimes parisiennes de la vague de canicule de 2003 dont les dépouilles n'ont pas été réclamées par des proches. La cérémonie a lieu le 3 septembre 2003, en présence du président de la République, Jacques Chirac, et du maire de Paris, Bertrand Delanoë.
-Sans se réduire à cette dimension, le cimetière parisien de Thiais est un lieu propice à l'inhumation de personnes reléguées, à divers degrés, par la société : déportés non réclamés par leurs familles, collaborateurs, soldats de la Waffen-SS et officiers de la Wehrmacht, criminels, membres de l'OAS et du FLN, migrants sans attache ou sans-abri[8]. L'arrêté du 10 mars 1955 désigne Thiais comme lieu exclusif d'inhumation des indigents parisiens, qui était jusque là pratiqué aussi à Pantin, Bagneux et Ivry[1].
-Une partie des « disparus » du massacre du 17 octobre 1961 est enterrée dans la division 97 du cimetière[8],[9].
-Regroupements confessionnels ou ethniques
-Après la saturation du cimetière musulman de Bobigny, il est décidé sous l'impulsion du préfet de la Seine, Paul Haag, d'ouvrir à Thiais ce que l'on nomme aujourd'hui le carré musulman, anticipant et inspirant les circulaires du ministère de l'Intérieur de 1975, 1991 et 2008[1]. Dès 1957, sans que cela ne donne lieu à un acte administratif de l'État, des divisions dédiées à des sépultures musulmanes sont créées à la demande de la Grande Mosquée de Paris, répondant à une demande d'environ 250 inhumations à la fin des années 1990[1]. D'abord onze, le nombre de divisions confessionnelles musulmanes passe à quinze, faisant de Thiais le principal regroupement de sépultures musulmanes de France[1].
-Les concessions dans les cimetières parisiens extra muros comme celui de Thiais sont en moyenne quatre fois moins chères qu'intra muros[10], et contrairement aux autres cimetières parisiens, il reste une grande superficie libre au cimetière de Thiais, ce qui permet d'acheter un grand nombre de concessions, favorisant des phénomènes de concentration par communauté religieuse ou ethnique, qui ne sont cependant que des regroupements de fait, non officiels[11].
+          <t>Ouverture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvert le 1er octobre 1929, il est le plus récent des cimetières parisiens. Son ouverture se fait contre l'avis des membres du conseil municipal de la commune, qui iront jusqu'à démissionner collectivement en mai 1923 en signe de protestation.
+La double porte d'entrée du cimetière, dans le style des années 1920, est une création de l'architecte Charles Halley, tandis que le mur d'enceinte est d'Auguste Perret.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Soldats serbes de la Première Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">700 soldats serbes de la Première Guerre mondiale y sont enterrés dans un carré militaire. Ils combattirent dans les Balkans et malades ou blessés, furent ramenés par la France à Marseille et envoyés dans des hôpitaux militaires. Ceux qui moururent furent inhumés au cimetière de Thiais plus tard, dans les années 1930, dans le contexte de l'amitié franco-serbe.
+En 2011, le président serbe, Boris Tadić, vient se recueillir devant leurs tombes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jardins de la fraternité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière abrite les seuls « terrains communs » de Paris pour adultes (divisions 48, 49, 50, 55, 56, 57, 58 et 95) dits « Jardins de la fraternité », où sont inhumées gratuitement les personnes non identifiées ou sans ressources ce qui a participé à son surnom de « cimetière des pauvres ». C'est là que sont inhumées les 57 victimes parisiennes de la vague de canicule de 2003 dont les dépouilles n'ont pas été réclamées par des proches. La cérémonie a lieu le 3 septembre 2003, en présence du président de la République, Jacques Chirac, et du maire de Paris, Bertrand Delanoë.
+Sans se réduire à cette dimension, le cimetière parisien de Thiais est un lieu propice à l'inhumation de personnes reléguées, à divers degrés, par la société : déportés non réclamés par leurs familles, collaborateurs, soldats de la Waffen-SS et officiers de la Wehrmacht, criminels, membres de l'OAS et du FLN, migrants sans attache ou sans-abri. L'arrêté du 10 mars 1955 désigne Thiais comme lieu exclusif d'inhumation des indigents parisiens, qui était jusque là pratiqué aussi à Pantin, Bagneux et Ivry.
+Une partie des « disparus » du massacre du 17 octobre 1961 est enterrée dans la division 97 du cimetière,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Regroupements confessionnels ou ethniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la saturation du cimetière musulman de Bobigny, il est décidé sous l'impulsion du préfet de la Seine, Paul Haag, d'ouvrir à Thiais ce que l'on nomme aujourd'hui le carré musulman, anticipant et inspirant les circulaires du ministère de l'Intérieur de 1975, 1991 et 2008. Dès 1957, sans que cela ne donne lieu à un acte administratif de l'État, des divisions dédiées à des sépultures musulmanes sont créées à la demande de la Grande Mosquée de Paris, répondant à une demande d'environ 250 inhumations à la fin des années 1990. D'abord onze, le nombre de divisions confessionnelles musulmanes passe à quinze, faisant de Thiais le principal regroupement de sépultures musulmanes de France.
+Les concessions dans les cimetières parisiens extra muros comme celui de Thiais sont en moyenne quatre fois moins chères qu'intra muros, et contrairement aux autres cimetières parisiens, il reste une grande superficie libre au cimetière de Thiais, ce qui permet d'acheter un grand nombre de concessions, favorisant des phénomènes de concentration par communauté religieuse ou ethnique, qui ne sont cependant que des regroupements de fait, non officiels.
 	Tombes de la diaspora asiatique
 	Tombes de la communauté juive
 			Rouleaux de la Torah et étoile de David.
@@ -598,109 +724,150 @@
 			Moïse descendant du Sinaï.
 			Menorah.
 			Pierres déposées par les visiteurs, et lanterne.
-Ossuaire
-En 2016, un ossuaire est ouvert au cimetière parisien de Thiais pour accueillir les restes des défunts de tous les cimetières parisiens, dont les sépultures ont été reprises pour cause de concession échue[12],[13],[14]. C'était jusqu'alors, et depuis le 1er janvier 1953, le rôle dévolu à l'ossuaire du cimetière du Père-Lachaise à Paris, d'abord seulement en provenance des cimetières intra muros, puis extra muros à partir du 1er janvier 2009[13]. Mais il était arrivé à saturation depuis plusieurs années, empêchant les reprises de sépultures et créant une pénurie de concessions disponibles pour les nouvelles inhumations[12],[15].
-Avant le début de la construction de l'ossuaire de Thiais, le 28 avril 2014, des fouilles d'archéologie préventive mettent au jour les corps d'une centaine de soldats allemands de la Seconde Guerre mondiale[16],[17]. La Volksbund Deutsche Kriegsgräberfürsorge les identifie comme faisant partie des 800 soldats inhumés à Thiais au cours du second semestre 1944, dont la plupart ont ensuite été transférés en 1948 au Cimetière militaire allemand de Champigny-Saint-André[18].
-Cette découverte oblige à changer l'emplacement de l'ossuaire, retardant d'environ un an sa livraison[15].
-Au rythme actuel, l'ossuaire de Thiais arrivera à son tour à saturation en 2035[14].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_parisien_de_Thiais</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ossuaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, un ossuaire est ouvert au cimetière parisien de Thiais pour accueillir les restes des défunts de tous les cimetières parisiens, dont les sépultures ont été reprises pour cause de concession échue. C'était jusqu'alors, et depuis le 1er janvier 1953, le rôle dévolu à l'ossuaire du cimetière du Père-Lachaise à Paris, d'abord seulement en provenance des cimetières intra muros, puis extra muros à partir du 1er janvier 2009. Mais il était arrivé à saturation depuis plusieurs années, empêchant les reprises de sépultures et créant une pénurie de concessions disponibles pour les nouvelles inhumations,.
+Avant le début de la construction de l'ossuaire de Thiais, le 28 avril 2014, des fouilles d'archéologie préventive mettent au jour les corps d'une centaine de soldats allemands de la Seconde Guerre mondiale,. La Volksbund Deutsche Kriegsgräberfürsorge les identifie comme faisant partie des 800 soldats inhumés à Thiais au cours du second semestre 1944, dont la plupart ont ensuite été transférés en 1948 au Cimetière militaire allemand de Champigny-Saint-André.
+Cette découverte oblige à changer l'emplacement de l'ossuaire, retardant d'environ un an sa livraison.
+Au rythme actuel, l'ossuaire de Thiais arrivera à son tour à saturation en 2035.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Divisions spécifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Division 1 : carré militaire serbe de la Première Guerre mondiale.
 Division 17 : carré militaire français de la Seconde Guerre mondiale.
 Divisions 48–50, 55–58, 95 : Jardins de la fraternité.
 Division 94 : division périnatale.
 Division 96 : division écologique (avec un quart périnatal).
-Division 102 : dispersion des cendres des personnes ayant donné leur corps ; une stèle a été érigée pour permettre aux familles de s'y recueillir[5].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_parisien_de_Thiais</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Division 102 : dispersion des cendres des personnes ayant donné leur corps ; une stèle a été érigée pour permettre aux familles de s'y recueillir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Aux résistants 1942 (pointe de la division 8).
 Dans la 17e division, une stèle honore la mémoire des membres de la force de police auxiliaire tués en service pendant la guerre d'Algérie.
-Dans la 16e division, un monument rend hommage aux victimes du vol Turkish Airlines 981 qui s'est écrasé dans la forêt d'Ermenonville le 3 mars 1974[19],[20].
-Dans la 22e division, un caveau collectif fait office de monument en mémoire des membres d'équipage du vol Air France 406 qui s'est écrasé dans le Sahara algérien le 10 mai 1961[19],[21].
-Dans la 36e division, une stèle a été érigée en 1985 par le Centre de solidarité et de fraternité franco-indochinoise (CSFFIC), association dont l'objet est l'intégration de la diaspora asiatique en France[22],[11].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_parisien_de_Thiais</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Dans la 16e division, un monument rend hommage aux victimes du vol Turkish Airlines 981 qui s'est écrasé dans la forêt d'Ermenonville le 3 mars 1974,.
+Dans la 22e division, un caveau collectif fait office de monument en mémoire des membres d'équipage du vol Air France 406 qui s'est écrasé dans le Sahara algérien le 10 mai 1961,.
+Dans la 36e division, une stèle a été érigée en 1985 par le Centre de solidarité et de fraternité franco-indochinoise (CSFFIC), association dont l'objet est l'intégration de la diaspora asiatique en France,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_parisien_de_Thiais</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Personnalités inhumées au cimetière parisien de Thiais</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Personnalités qui ont été inhumées au cimetière parisien de Thiais
 </t>
